--- a/Arquivos/Challenge.xlsx
+++ b/Arquivos/Challenge.xlsx
@@ -1,74 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Projetos\RPA Challenge\Arquivos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9C851-8EC5-40C2-8276-DD453939C936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>picture filename</t>
-  </si>
-  <si>
-    <t>quantity of search phrases</t>
-  </si>
-  <si>
-    <t>Amount Money</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF242424"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <color rgb="FF242424"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,26 +59,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,45 +403,705 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD48"/>
+      <selection activeCell="A2" sqref="A2:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col width="55.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="8" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="127.44140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="41.21875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="23.5546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>picture filename</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>quantity of search phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Amount Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>What to See in New York During a Month-Long Celebration of Design</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>May 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>These are the highlights of what to do and where to go in May if you’re interested in design topics.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>04SP-TEFAFNY-DESIGNCALENDAR-INYT-mpzl-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Can Forests Be More Profitable Than Beef?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cattle ranches have ruled the Amazon for decades. Now, new companies are selling something else: the ability of trees to lock away planet-warming carbon.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00cli-reforestation-01-pcfh-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>How Technology Has Outpaced the Law</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Abortions in the U.S. have risen slightly since Roe was struck down. One factor: pills ordered online.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>02-the-morning-pill-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Frieze New York Brings a Rich, Cross-Cultural Mix</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The Shed welcomes an international survey of painting, textiles and collage to its galleries. Our critic picks his 23 favorite booths.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>02frieze-fair-art-review-02-kvfc-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Torrential Rains Leave at Least 29 Dead and More Missing in Brazil</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Four days of pounding rain have inundated many parts of a southern state, cutting off towns and leaving people trapped as they await rescue by helicopters.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>02brazil-floods-stack-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Making Flying Cleaner</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>New guidelines attempt to make the aviation cleaner by relying on corn-based ethanol, but experts divided on the fuel’s environmental benefits.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>02cli-newsletter-01-pwhz-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Three Choices for World-Class Art and a Nosh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Think vegan lobster rolls and the Swizz Beats and Alicia Keys collection at Brooklyn Museum.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>08wte-museums1-gwht-threeByTwoSmallAt2X-v2.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Best Headwear at the Central Park Hat Lunch</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Attendees at the annual Frederick Law Olmsted Awards wore their finest fascinators, headbands and bird hats to raise money for the jewel of New York.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>02CENTRALPARKHATS-02-ptlc-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Friday Briefing: Hamas Considers Israel’s Proposal</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Also, the U.S. accused Russia of using chemical weapons.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>03asia-khan-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Why the Protests Help Trump</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>May 2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The excesses of social protest movements can play into the hands of candidates who promise to restore order.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>02brooks2-gljc-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>May 3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hamas considers a cease-fire.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>03ambriefing-mideast-crisis-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>At Venice Biennale, Artists Make a Case for Returning Looted Artifacts</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>May 3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>For years, activists and politicians have led discussions about whether disputed museum objects should go back to their countries of origin. At this year’s Biennale, artists are entering the fray.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>03venice-restitution-01-cblm-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The Independent Art Fair Looks Back in a Special Exhibition</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>May 3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The art fair has a history of helping artists get discovered — and rediscovered. A show at the heart of this year’s fair spotlights that power.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>04sp-tefafny-independent-inyt-07-pjmv-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Going to TEFAF New York? Here are 4 Shows You Can Walk to.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>May 3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>These exhibitions are all within a 10-minute walk from the Park Avenue Armory, so you can take your time and enjoy the spring weather.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>04sp-tefafny-walking-inyt-01-tfjh-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>It’s Time to Tax the Billionaires</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>May 3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Billionaires are experts at avoiding taxes. By banding together, countries can make them pay up.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-04-24-tax-billionaires-index-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The Side Effects of Covid Vaccines</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>May 3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Thousands of Americans have filed vaccine-injury claims with the federal government.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>03-the-morning-shaun-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Moving Target</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>May 4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A recent study offers some suggestions on the best time of day to exercise. But optimizing a routine requires having a routine to begin with.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>04hemorning-nl-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2 Books for Rebels</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>May 4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A maid resists her employers; citizens resist their country.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>RLTW-Bartelby-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lawsuit Accuses Everton Bidder 777 Partners of $600 Million Fraud</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>May 4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>In a suit filed in federal court in New York, a firm that provided hundreds of millions of dollars to 777 accused the company of double-pledging its collateral to other investors.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>04soccer-lawsuit-1-kjpb-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Frank Stella, Towering Artist and Master of Reinvention, Dies at 87</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>May 4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>He moved American art away from Abstract Expressionism toward cool minimalism. His explorations of color and form were endlessly discussed and constantly on exhibit.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>merlin_150536814_dfe3ad37-cb73-40aa-a498-5648df2bdcc1-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Xi Visits Europe, Seeking Strategic Opportunity</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>May 5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The Chinese leader has carefully chosen three countries — France, Serbia and Hungary — that to varying degrees embrace Beijing’s push for a new global order.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>05europe-china-zbmc-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Organizers Hope Music Puts the Miami in the Miami Grand Prix</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>May 5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The entertainment lineup for this weekend’s Formula 1 race has been infused with Latin music and nightclub-like electronic beats.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>F1-Miami-gcbf-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Madonna Brings Massive Free Concert to Rio, Capping Celebration Tour</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9h ago</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The pop superstar performed a final date on her global trek marking four decades of hits: a set on Copacabana Beach before the largest live crowd of her career.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>05madonna-brazil1-cfwt-threeByTwoSmallAt2X.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>